--- a/data/dataThongtinhanghoa_case4.xlsx
+++ b/data/dataThongtinhanghoa_case4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Soluong</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Cái</t>
+  </si>
+  <si>
+    <t>Điện thoại sam sung galaxy a10</t>
+  </si>
+  <si>
+    <t>Chiết khấu</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>Xoa</t>
   </si>
 </sst>
 </file>
@@ -370,23 +385,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -405,13 +420,16 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -422,17 +440,137 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
